--- a/port-log.xlsx
+++ b/port-log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaute\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\Ship Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A151140-5E6C-4E96-8370-AAA8606B90DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -99,9 +100,6 @@
     <t>Vessel preparing for sailing</t>
   </si>
   <si>
-    <t>GUATEMALA MARITIMA, S.A.</t>
-  </si>
-  <si>
     <t>As agent</t>
   </si>
   <si>
@@ -187,11 +185,14 @@
       <t>Vessel preparing for sailing</t>
     </r>
   </si>
+  <si>
+    <t>NAVIERA EJEMPLO, S.A.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -265,46 +266,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -325,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,9 +366,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,7 +403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,269 +611,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B53" sqref="B53:D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="72.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8" t="s">
+    <row r="2" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2022</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F8" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F9" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F10" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F12" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F13" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F14" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F15" s="9" t="s">
+    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F19" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F16" s="10" t="s">
+    <row r="20" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F21" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F27" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F28" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F30" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F31" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F32" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F33" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F18" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F19" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F20" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F21" s="10" t="s">
+    <row r="34" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F34" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F35" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F36" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F37" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F22" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F23" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F24" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F25" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F26" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F27" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F28" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F29" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F30" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F31" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F32" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F33" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F34" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F35" s="9" t="s">
+    <row r="38" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F38" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F39" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F40" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F41" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F42" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F43" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F44" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F36" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F37" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F38" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F39" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F40" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F41" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F42" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F43" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F44" s="9" t="s">
+    <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
+      <c r="F52" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
